--- a/Proyecto Interno/composicion-nut/1823_mapeo_sipsa_tcac v1.0_2025.xlsx
+++ b/Proyecto Interno/composicion-nut/1823_mapeo_sipsa_tcac v1.0_2025.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr updateLinks="always" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\portatil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/composicion-nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B138571D-3664-4E25-BFF5-D05DDD42E79B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B138571D-3664-4E25-BFF5-D05DDD42E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6248E7-601A-41B4-92F1-9CABCE5C596F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7275" windowHeight="1125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6204" yWindow="3804" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imputada" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Imputada!$A$1:$AK$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Imputada!$B$1:$AI$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2937,7 +2937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2951,7 +2951,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2970,15 +2969,13 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jason Suescum  Holguin" id="{CDBB7B58-8426-40CF-B478-9014A019EE1A}" userId="S::jason5h@javerianacali.edu.co::71eae0a4-6b24-4873-815a-a922f2a89e72" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3016,9 +3013,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3051,26 +3048,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3103,26 +3083,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3302,23 +3265,24 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" customWidth="1"/>
-    <col min="35" max="35" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" customWidth="1"/>
+    <col min="35" max="35" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3393,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -3536,7 +3500,7 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -3643,7 +3607,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -3750,7 +3714,7 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -3857,7 +3821,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -3964,7 +3928,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -4075,7 +4039,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -4184,7 +4148,7 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -4293,7 +4257,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -4402,7 +4366,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -4511,7 +4475,7 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -4622,7 +4586,7 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -4731,7 +4695,7 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,7 +4804,7 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -4949,7 +4913,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -5058,7 +5022,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -5165,7 +5129,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -5272,7 +5236,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -5381,7 +5345,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -5490,7 +5454,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -5601,7 +5565,7 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -5712,7 +5676,7 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -5821,7 +5785,7 @@
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -5932,7 +5896,7 @@
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -6043,7 +6007,7 @@
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,7 +6118,7 @@
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
@@ -6265,7 +6229,7 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -6366,7 +6330,7 @@
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -6475,7 +6439,7 @@
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -6584,7 +6548,7 @@
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -6693,7 +6657,7 @@
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -6802,7 +6766,7 @@
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -6909,7 +6873,7 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
     </row>
-    <row r="34" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -7016,7 +6980,7 @@
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
     </row>
-    <row r="35" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -7123,7 +7087,7 @@
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
-    <row r="36" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -7230,7 +7194,7 @@
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
     </row>
-    <row r="37" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -7341,7 +7305,7 @@
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
     </row>
-    <row r="38" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
@@ -7450,7 +7414,7 @@
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
     </row>
-    <row r="39" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
@@ -7559,7 +7523,7 @@
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
     </row>
-    <row r="40" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -7668,7 +7632,7 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -7779,7 +7743,7 @@
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
     </row>
-    <row r="42" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
@@ -7888,7 +7852,7 @@
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
     </row>
-    <row r="43" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
@@ -7997,7 +7961,7 @@
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
     </row>
-    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
@@ -8106,7 +8070,7 @@
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
     </row>
-    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
@@ -8215,7 +8179,7 @@
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
     </row>
-    <row r="46" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>119</v>
       </c>
@@ -8324,7 +8288,7 @@
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
     </row>
-    <row r="47" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
@@ -8433,7 +8397,7 @@
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
     </row>
-    <row r="48" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
@@ -8544,7 +8508,7 @@
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
     </row>
-    <row r="49" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
@@ -8655,7 +8619,7 @@
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
     </row>
-    <row r="50" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
@@ -8764,7 +8728,7 @@
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
     </row>
-    <row r="51" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>128</v>
       </c>
@@ -8832,7 +8796,7 @@
       <c r="W51" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X51" s="9">
+      <c r="X51" s="6">
         <v>2</v>
       </c>
       <c r="Y51" s="6">
@@ -8875,7 +8839,7 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
     </row>
-    <row r="52" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
@@ -8984,7 +8948,7 @@
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
     </row>
-    <row r="53" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
@@ -9093,7 +9057,7 @@
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
     </row>
-    <row r="54" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -9202,7 +9166,7 @@
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
     </row>
-    <row r="55" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>136</v>
       </c>
@@ -9309,7 +9273,7 @@
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
     </row>
-    <row r="56" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>138</v>
       </c>
@@ -9416,7 +9380,7 @@
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="57" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>140</v>
       </c>
@@ -9517,7 +9481,7 @@
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
     </row>
-    <row r="58" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>143</v>
       </c>
@@ -9626,7 +9590,7 @@
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
     </row>
-    <row r="59" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>145</v>
       </c>
@@ -9733,7 +9697,7 @@
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
     </row>
-    <row r="60" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
@@ -9840,7 +9804,7 @@
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
     </row>
-    <row r="61" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
@@ -9949,7 +9913,7 @@
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
     </row>
-    <row r="62" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>150</v>
       </c>
@@ -10056,7 +10020,7 @@
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
-    <row r="63" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>152</v>
       </c>
@@ -10165,7 +10129,7 @@
       <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
     </row>
-    <row r="64" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>154</v>
       </c>
@@ -10276,7 +10240,7 @@
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
     </row>
-    <row r="65" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>156</v>
       </c>
@@ -10377,7 +10341,7 @@
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
     </row>
-    <row r="66" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>160</v>
       </c>
@@ -10486,7 +10450,7 @@
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
     </row>
-    <row r="67" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -10595,7 +10559,7 @@
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
-    <row r="68" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>164</v>
       </c>
@@ -10704,7 +10668,7 @@
       <c r="AL68" s="1"/>
       <c r="AM68" s="1"/>
     </row>
-    <row r="69" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
@@ -10813,7 +10777,7 @@
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
     </row>
-    <row r="70" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
@@ -10922,7 +10886,7 @@
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
     </row>
-    <row r="71" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>170</v>
       </c>
@@ -11031,7 +10995,7 @@
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
     </row>
-    <row r="72" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
@@ -11140,7 +11104,7 @@
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
     </row>
-    <row r="73" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>174</v>
       </c>
@@ -11249,7 +11213,7 @@
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
     </row>
-    <row r="74" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>177</v>
       </c>
@@ -11358,7 +11322,7 @@
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
     </row>
-    <row r="75" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>178</v>
       </c>
@@ -11467,7 +11431,7 @@
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
     </row>
-    <row r="76" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>180</v>
       </c>
@@ -11578,7 +11542,7 @@
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
     </row>
-    <row r="77" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -11687,7 +11651,7 @@
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
     </row>
-    <row r="78" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
@@ -11796,7 +11760,7 @@
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
     </row>
-    <row r="79" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
@@ -11905,7 +11869,7 @@
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
     </row>
-    <row r="80" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>188</v>
       </c>
@@ -12014,7 +11978,7 @@
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
     </row>
-    <row r="81" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>189</v>
       </c>
@@ -12123,7 +12087,7 @@
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
     </row>
-    <row r="82" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>190</v>
       </c>
@@ -12230,7 +12194,7 @@
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
     </row>
-    <row r="83" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>192</v>
       </c>
@@ -12339,7 +12303,7 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
     </row>
-    <row r="84" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>193</v>
       </c>
@@ -12446,7 +12410,7 @@
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
     </row>
-    <row r="85" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>195</v>
       </c>
@@ -12549,7 +12513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>199</v>
       </c>
@@ -12658,7 +12622,7 @@
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
     </row>
-    <row r="87" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>201</v>
       </c>
@@ -12765,7 +12729,7 @@
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
     </row>
-    <row r="88" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>202</v>
       </c>
@@ -12874,7 +12838,7 @@
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
     </row>
-    <row r="89" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>204</v>
       </c>
@@ -12983,7 +12947,7 @@
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
     </row>
-    <row r="90" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>205</v>
       </c>
@@ -13090,7 +13054,7 @@
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
     </row>
-    <row r="91" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>207</v>
       </c>
@@ -13199,7 +13163,7 @@
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
     </row>
-    <row r="92" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>208</v>
       </c>
@@ -13308,7 +13272,7 @@
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
     </row>
-    <row r="93" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>209</v>
       </c>
@@ -13417,7 +13381,7 @@
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
     </row>
-    <row r="94" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>210</v>
       </c>
@@ -13524,7 +13488,7 @@
       <c r="AL94" s="1"/>
       <c r="AM94" s="1"/>
     </row>
-    <row r="95" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>211</v>
       </c>
@@ -13631,7 +13595,7 @@
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
     </row>
-    <row r="96" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>212</v>
       </c>
@@ -13738,7 +13702,7 @@
       <c r="AL96" s="1"/>
       <c r="AM96" s="1"/>
     </row>
-    <row r="97" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>213</v>
       </c>
@@ -13839,7 +13803,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="98" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>216</v>
       </c>
@@ -13948,7 +13912,7 @@
       <c r="AL98" s="1"/>
       <c r="AM98" s="1"/>
     </row>
-    <row r="99" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>218</v>
       </c>
@@ -14057,7 +14021,7 @@
       <c r="AL99" s="1"/>
       <c r="AM99" s="1"/>
     </row>
-    <row r="100" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>219</v>
       </c>
@@ -14166,7 +14130,7 @@
       <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
     </row>
-    <row r="101" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>220</v>
       </c>
@@ -14275,7 +14239,7 @@
       <c r="AL101" s="1"/>
       <c r="AM101" s="1"/>
     </row>
-    <row r="102" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>221</v>
       </c>
@@ -14374,7 +14338,7 @@
       <c r="AL102" s="1"/>
       <c r="AM102" s="1"/>
     </row>
-    <row r="103" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>225</v>
       </c>
@@ -14483,7 +14447,7 @@
       <c r="AL103" s="1"/>
       <c r="AM103" s="1"/>
     </row>
-    <row r="104" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>226</v>
       </c>
@@ -14582,7 +14546,7 @@
       <c r="AL104" s="1"/>
       <c r="AM104" s="1"/>
     </row>
-    <row r="105" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>227</v>
       </c>
@@ -14681,7 +14645,7 @@
       <c r="AL105" s="1"/>
       <c r="AM105" s="1"/>
     </row>
-    <row r="106" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>228</v>
       </c>
@@ -14792,7 +14756,7 @@
       <c r="AL106" s="1"/>
       <c r="AM106" s="1"/>
     </row>
-    <row r="107" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>231</v>
       </c>
@@ -14901,7 +14865,7 @@
       <c r="AL107" s="1"/>
       <c r="AM107" s="1"/>
     </row>
-    <row r="108" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>232</v>
       </c>
@@ -15012,7 +14976,7 @@
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
     </row>
-    <row r="109" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>233</v>
       </c>
@@ -15123,7 +15087,7 @@
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
     </row>
-    <row r="110" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>234</v>
       </c>
@@ -15232,7 +15196,7 @@
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
     </row>
-    <row r="111" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>235</v>
       </c>
@@ -15341,7 +15305,7 @@
       <c r="AL111" s="1"/>
       <c r="AM111" s="1"/>
     </row>
-    <row r="112" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>237</v>
       </c>
@@ -15440,7 +15404,7 @@
       <c r="AL112" s="1"/>
       <c r="AM112" s="1"/>
     </row>
-    <row r="113" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>240</v>
       </c>
@@ -15547,7 +15511,7 @@
       <c r="AL113" s="1"/>
       <c r="AM113" s="1"/>
     </row>
-    <row r="114" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>242</v>
       </c>
@@ -15658,7 +15622,7 @@
       <c r="AL114" s="1"/>
       <c r="AM114" s="1"/>
     </row>
-    <row r="115" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>245</v>
       </c>
@@ -15757,7 +15721,7 @@
       <c r="AL115" s="1"/>
       <c r="AM115" s="1"/>
     </row>
-    <row r="116" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>248</v>
       </c>
@@ -15866,7 +15830,7 @@
       <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
     </row>
-    <row r="117" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>250</v>
       </c>
@@ -15975,7 +15939,7 @@
       <c r="AL117" s="1"/>
       <c r="AM117" s="1"/>
     </row>
-    <row r="118" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>252</v>
       </c>
@@ -16086,7 +16050,7 @@
       <c r="AL118" s="1"/>
       <c r="AM118" s="1"/>
     </row>
-    <row r="119" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>255</v>
       </c>
@@ -16195,7 +16159,7 @@
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
     </row>
-    <row r="120" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>256</v>
       </c>
@@ -16304,7 +16268,7 @@
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
     </row>
-    <row r="121" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -16417,7 +16381,7 @@
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
     </row>
-    <row r="122" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>261</v>
       </c>
@@ -16526,7 +16490,7 @@
       <c r="AL122" s="1"/>
       <c r="AM122" s="1"/>
     </row>
-    <row r="123" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>263</v>
       </c>
@@ -16635,7 +16599,7 @@
       <c r="AL123" s="1"/>
       <c r="AM123" s="1"/>
     </row>
-    <row r="124" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>265</v>
       </c>
@@ -16744,7 +16708,7 @@
       <c r="AL124" s="1"/>
       <c r="AM124" s="1"/>
     </row>
-    <row r="125" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>267</v>
       </c>
@@ -16853,7 +16817,7 @@
       <c r="AL125" s="1"/>
       <c r="AM125" s="1"/>
     </row>
-    <row r="126" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>269</v>
       </c>
@@ -16964,7 +16928,7 @@
       <c r="AL126" s="1"/>
       <c r="AM126" s="1"/>
     </row>
-    <row r="127" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>271</v>
       </c>
@@ -17075,7 +17039,7 @@
       <c r="AL127" s="1"/>
       <c r="AM127" s="1"/>
     </row>
-    <row r="128" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>273</v>
       </c>
@@ -17184,7 +17148,7 @@
       <c r="AL128" s="1"/>
       <c r="AM128" s="1"/>
     </row>
-    <row r="129" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>274</v>
       </c>
@@ -17293,7 +17257,7 @@
       <c r="AL129" s="1"/>
       <c r="AM129" s="1"/>
     </row>
-    <row r="130" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>276</v>
       </c>
@@ -17392,7 +17356,7 @@
       <c r="AL130" s="1"/>
       <c r="AM130" s="1"/>
     </row>
-    <row r="131" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>278</v>
       </c>
@@ -17501,7 +17465,7 @@
       <c r="AL131" s="1"/>
       <c r="AM131" s="1"/>
     </row>
-    <row r="132" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>280</v>
       </c>
@@ -17610,7 +17574,7 @@
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
     </row>
-    <row r="133" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>282</v>
       </c>
@@ -17719,7 +17683,7 @@
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
     </row>
-    <row r="134" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>284</v>
       </c>
@@ -17828,7 +17792,7 @@
       <c r="AL134" s="1"/>
       <c r="AM134" s="1"/>
     </row>
-    <row r="135" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>286</v>
       </c>
@@ -17937,7 +17901,7 @@
       <c r="AL135" s="1"/>
       <c r="AM135" s="1"/>
     </row>
-    <row r="136" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>287</v>
       </c>
@@ -18048,7 +18012,7 @@
       <c r="AL136" s="1"/>
       <c r="AM136" s="1"/>
     </row>
-    <row r="137" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>289</v>
       </c>
@@ -18157,7 +18121,7 @@
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
     </row>
-    <row r="138" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>290</v>
       </c>
@@ -18266,7 +18230,7 @@
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
     </row>
-    <row r="139" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>292</v>
       </c>
@@ -18365,7 +18329,7 @@
       <c r="AL139" s="1"/>
       <c r="AM139" s="1"/>
     </row>
-    <row r="140" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>295</v>
       </c>
@@ -18474,7 +18438,7 @@
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
     </row>
-    <row r="141" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>296</v>
       </c>
@@ -18573,7 +18537,7 @@
       <c r="AL141" s="1"/>
       <c r="AM141" s="1"/>
     </row>
-    <row r="142" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>299</v>
       </c>
@@ -18682,7 +18646,7 @@
       <c r="AL142" s="1"/>
       <c r="AM142" s="1"/>
     </row>
-    <row r="143" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>301</v>
       </c>
@@ -18793,7 +18757,7 @@
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
     </row>
-    <row r="144" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>304</v>
       </c>
@@ -18902,7 +18866,7 @@
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
     </row>
-    <row r="145" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>306</v>
       </c>
@@ -19011,7 +18975,7 @@
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
     </row>
-    <row r="146" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>307</v>
       </c>
@@ -19122,7 +19086,7 @@
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
     </row>
-    <row r="147" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>309</v>
       </c>
@@ -19221,7 +19185,7 @@
       <c r="AL147" s="1"/>
       <c r="AM147" s="1"/>
     </row>
-    <row r="148" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>310</v>
       </c>
@@ -19328,7 +19292,7 @@
       <c r="AL148" s="1"/>
       <c r="AM148" s="1"/>
     </row>
-    <row r="149" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>312</v>
       </c>
@@ -19435,7 +19399,7 @@
       <c r="AL149" s="1"/>
       <c r="AM149" s="1"/>
     </row>
-    <row r="150" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>314</v>
       </c>
@@ -19546,7 +19510,7 @@
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
     </row>
-    <row r="151" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>317</v>
       </c>
@@ -19653,7 +19617,7 @@
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
     </row>
-    <row r="152" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>319</v>
       </c>
@@ -19762,7 +19726,7 @@
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
     </row>
-    <row r="153" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>321</v>
       </c>
@@ -19871,7 +19835,7 @@
       <c r="AL153" s="1"/>
       <c r="AM153" s="1"/>
     </row>
-    <row r="154" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>323</v>
       </c>
@@ -19970,7 +19934,7 @@
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
     </row>
-    <row r="155" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>326</v>
       </c>
@@ -20079,7 +20043,7 @@
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
     </row>
-    <row r="156" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>328</v>
       </c>
@@ -20188,7 +20152,7 @@
       <c r="AL156" s="1"/>
       <c r="AM156" s="1"/>
     </row>
-    <row r="157" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>330</v>
       </c>
@@ -20297,7 +20261,7 @@
       <c r="AL157" s="1"/>
       <c r="AM157" s="1"/>
     </row>
-    <row r="158" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>331</v>
       </c>
@@ -20406,7 +20370,7 @@
       <c r="AL158" s="1"/>
       <c r="AM158" s="1"/>
     </row>
-    <row r="159" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>332</v>
       </c>
@@ -20515,7 +20479,7 @@
       <c r="AL159" s="1"/>
       <c r="AM159" s="1"/>
     </row>
-    <row r="160" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>333</v>
       </c>
@@ -20624,7 +20588,7 @@
       <c r="AL160" s="1"/>
       <c r="AM160" s="1"/>
     </row>
-    <row r="161" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>335</v>
       </c>
@@ -20733,7 +20697,7 @@
       <c r="AL161" s="1"/>
       <c r="AM161" s="1"/>
     </row>
-    <row r="162" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>337</v>
       </c>
@@ -20842,7 +20806,7 @@
       <c r="AL162" s="1"/>
       <c r="AM162" s="1"/>
     </row>
-    <row r="163" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>339</v>
       </c>
@@ -20953,7 +20917,7 @@
       <c r="AL163" s="1"/>
       <c r="AM163" s="1"/>
     </row>
-    <row r="164" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>341</v>
       </c>
@@ -21060,7 +21024,7 @@
       <c r="AL164" s="1"/>
       <c r="AM164" s="1"/>
     </row>
-    <row r="165" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>343</v>
       </c>
@@ -21167,7 +21131,7 @@
       <c r="AL165" s="1"/>
       <c r="AM165" s="1"/>
     </row>
-    <row r="166" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -21276,7 +21240,7 @@
       <c r="AL166" s="1"/>
       <c r="AM166" s="1"/>
     </row>
-    <row r="167" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>347</v>
       </c>
@@ -21385,7 +21349,7 @@
       <c r="AL167" s="1"/>
       <c r="AM167" s="1"/>
     </row>
-    <row r="168" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>349</v>
       </c>
@@ -21494,7 +21458,7 @@
       <c r="AL168" s="1"/>
       <c r="AM168" s="1"/>
     </row>
-    <row r="169" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>350</v>
       </c>
@@ -21603,7 +21567,7 @@
       <c r="AL169" s="1"/>
       <c r="AM169" s="1"/>
     </row>
-    <row r="170" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>351</v>
       </c>
@@ -21712,7 +21676,7 @@
       <c r="AL170" s="1"/>
       <c r="AM170" s="1"/>
     </row>
-    <row r="171" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>352</v>
       </c>
@@ -21821,7 +21785,7 @@
       <c r="AL171" s="1"/>
       <c r="AM171" s="1"/>
     </row>
-    <row r="172" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>353</v>
       </c>
@@ -21930,7 +21894,7 @@
       <c r="AL172" s="1"/>
       <c r="AM172" s="1"/>
     </row>
-    <row r="173" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>354</v>
       </c>
@@ -22039,7 +22003,7 @@
       <c r="AL173" s="1"/>
       <c r="AM173" s="1"/>
     </row>
-    <row r="174" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>355</v>
       </c>
@@ -22148,7 +22112,7 @@
       <c r="AL174" s="1"/>
       <c r="AM174" s="1"/>
     </row>
-    <row r="175" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>356</v>
       </c>
@@ -22255,7 +22219,7 @@
       <c r="AL175" s="1"/>
       <c r="AM175" s="1"/>
     </row>
-    <row r="176" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>357</v>
       </c>
@@ -22364,7 +22328,7 @@
       <c r="AL176" s="1"/>
       <c r="AM176" s="1"/>
     </row>
-    <row r="177" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>359</v>
       </c>
@@ -22471,7 +22435,7 @@
       <c r="AL177" s="1"/>
       <c r="AM177" s="1"/>
     </row>
-    <row r="178" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>361</v>
       </c>
@@ -22578,7 +22542,7 @@
       <c r="AL178" s="1"/>
       <c r="AM178" s="1"/>
     </row>
-    <row r="179" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>362</v>
       </c>
@@ -22685,7 +22649,7 @@
       <c r="AL179" s="1"/>
       <c r="AM179" s="1"/>
     </row>
-    <row r="180" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>364</v>
       </c>
@@ -22794,7 +22758,7 @@
       <c r="AL180" s="1"/>
       <c r="AM180" s="1"/>
     </row>
-    <row r="181" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>366</v>
       </c>
@@ -22903,7 +22867,7 @@
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
     </row>
-    <row r="182" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>368</v>
       </c>
@@ -23012,7 +22976,7 @@
       <c r="AL182" s="1"/>
       <c r="AM182" s="1"/>
     </row>
-    <row r="183" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
@@ -23121,7 +23085,7 @@
       <c r="AL183" s="1"/>
       <c r="AM183" s="1"/>
     </row>
-    <row r="184" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>372</v>
       </c>
@@ -23230,7 +23194,7 @@
       <c r="AL184" s="1"/>
       <c r="AM184" s="1"/>
     </row>
-    <row r="185" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
@@ -23339,7 +23303,7 @@
       <c r="AL185" s="1"/>
       <c r="AM185" s="1"/>
     </row>
-    <row r="186" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>374</v>
       </c>
@@ -23448,7 +23412,7 @@
       <c r="AL186" s="1"/>
       <c r="AM186" s="1"/>
     </row>
-    <row r="187" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>375</v>
       </c>
@@ -23557,7 +23521,7 @@
       <c r="AL187" s="1"/>
       <c r="AM187" s="1"/>
     </row>
-    <row r="188" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>376</v>
       </c>
@@ -23664,7 +23628,7 @@
       <c r="AL188" s="1"/>
       <c r="AM188" s="1"/>
     </row>
-    <row r="189" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>378</v>
       </c>
@@ -23773,7 +23737,7 @@
       <c r="AL189" s="1"/>
       <c r="AM189" s="1"/>
     </row>
-    <row r="190" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>380</v>
       </c>
@@ -23882,7 +23846,7 @@
       <c r="AL190" s="1"/>
       <c r="AM190" s="1"/>
     </row>
-    <row r="191" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>382</v>
       </c>
@@ -23991,7 +23955,7 @@
       <c r="AL191" s="1"/>
       <c r="AM191" s="1"/>
     </row>
-    <row r="192" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>383</v>
       </c>
@@ -24102,7 +24066,7 @@
       <c r="AL192" s="1"/>
       <c r="AM192" s="1"/>
     </row>
-    <row r="193" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>384</v>
       </c>
@@ -24215,7 +24179,7 @@
       <c r="AL193" s="1"/>
       <c r="AM193" s="1"/>
     </row>
-    <row r="194" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>387</v>
       </c>
@@ -24328,7 +24292,7 @@
       <c r="AL194" s="1"/>
       <c r="AM194" s="1"/>
     </row>
-    <row r="195" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>390</v>
       </c>
@@ -24439,7 +24403,7 @@
       <c r="AL195" s="1"/>
       <c r="AM195" s="1"/>
     </row>
-    <row r="196" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>391</v>
       </c>
@@ -24538,7 +24502,7 @@
       <c r="AL196" s="1"/>
       <c r="AM196" s="1"/>
     </row>
-    <row r="197" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>394</v>
       </c>
@@ -24647,7 +24611,7 @@
       <c r="AL197" s="1"/>
       <c r="AM197" s="1"/>
     </row>
-    <row r="198" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>396</v>
       </c>
@@ -24756,7 +24720,7 @@
       <c r="AL198" s="1"/>
       <c r="AM198" s="1"/>
     </row>
-    <row r="199" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>398</v>
       </c>
@@ -24865,7 +24829,7 @@
       <c r="AL199" s="1"/>
       <c r="AM199" s="1"/>
     </row>
-    <row r="200" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>399</v>
       </c>
@@ -24974,7 +24938,7 @@
       <c r="AL200" s="1"/>
       <c r="AM200" s="1"/>
     </row>
-    <row r="201" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>400</v>
       </c>
@@ -25083,7 +25047,7 @@
       <c r="AL201" s="1"/>
       <c r="AM201" s="1"/>
     </row>
-    <row r="202" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>401</v>
       </c>
@@ -25192,7 +25156,7 @@
       <c r="AL202" s="1"/>
       <c r="AM202" s="1"/>
     </row>
-    <row r="203" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>403</v>
       </c>
@@ -25301,7 +25265,7 @@
       <c r="AL203" s="1"/>
       <c r="AM203" s="1"/>
     </row>
-    <row r="204" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>404</v>
       </c>
@@ -25412,7 +25376,7 @@
       <c r="AL204" s="1"/>
       <c r="AM204" s="1"/>
     </row>
-    <row r="205" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>406</v>
       </c>
@@ -25513,7 +25477,7 @@
       <c r="AL205" s="1"/>
       <c r="AM205" s="1"/>
     </row>
-    <row r="206" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>410</v>
       </c>
@@ -25614,7 +25578,7 @@
       <c r="AL206" s="1"/>
       <c r="AM206" s="1"/>
     </row>
-    <row r="207" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>411</v>
       </c>
@@ -25715,7 +25679,7 @@
       <c r="AL207" s="1"/>
       <c r="AM207" s="1"/>
     </row>
-    <row r="208" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>412</v>
       </c>
@@ -25824,7 +25788,7 @@
       <c r="AL208" s="1"/>
       <c r="AM208" s="1"/>
     </row>
-    <row r="209" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>414</v>
       </c>
@@ -25935,7 +25899,7 @@
       <c r="AL209" s="1"/>
       <c r="AM209" s="1"/>
     </row>
-    <row r="210" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
@@ -26042,7 +26006,7 @@
       <c r="AL210" s="1"/>
       <c r="AM210" s="1"/>
     </row>
-    <row r="211" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>417</v>
       </c>
@@ -26151,7 +26115,7 @@
       <c r="AL211" s="1"/>
       <c r="AM211" s="1"/>
     </row>
-    <row r="212" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -26260,7 +26224,7 @@
       <c r="AL212" s="1"/>
       <c r="AM212" s="1"/>
     </row>
-    <row r="213" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>420</v>
       </c>
@@ -26369,7 +26333,7 @@
       <c r="AL213" s="1"/>
       <c r="AM213" s="1"/>
     </row>
-    <row r="214" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>421</v>
       </c>
@@ -26478,7 +26442,7 @@
       <c r="AL214" s="1"/>
       <c r="AM214" s="1"/>
     </row>
-    <row r="215" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>422</v>
       </c>
@@ -26587,7 +26551,7 @@
       <c r="AL215" s="1"/>
       <c r="AM215" s="1"/>
     </row>
-    <row r="216" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>424</v>
       </c>
@@ -26696,7 +26660,7 @@
       <c r="AL216" s="1"/>
       <c r="AM216" s="1"/>
     </row>
-    <row r="217" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>425</v>
       </c>
@@ -26805,7 +26769,7 @@
       <c r="AL217" s="1"/>
       <c r="AM217" s="1"/>
     </row>
-    <row r="218" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>426</v>
       </c>
@@ -26914,7 +26878,7 @@
       <c r="AL218" s="1"/>
       <c r="AM218" s="1"/>
     </row>
-    <row r="219" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>427</v>
       </c>
@@ -27023,7 +26987,7 @@
       <c r="AL219" s="1"/>
       <c r="AM219" s="1"/>
     </row>
-    <row r="220" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>428</v>
       </c>
@@ -27130,7 +27094,7 @@
       <c r="AL220" s="1"/>
       <c r="AM220" s="1"/>
     </row>
-    <row r="221" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>430</v>
       </c>
@@ -27237,7 +27201,7 @@
       <c r="AL221" s="1"/>
       <c r="AM221" s="1"/>
     </row>
-    <row r="222" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>432</v>
       </c>
@@ -27346,7 +27310,7 @@
       <c r="AL222" s="1"/>
       <c r="AM222" s="1"/>
     </row>
-    <row r="223" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>434</v>
       </c>
@@ -27455,7 +27419,7 @@
       <c r="AL223" s="1"/>
       <c r="AM223" s="1"/>
     </row>
-    <row r="224" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>436</v>
       </c>
@@ -27564,7 +27528,7 @@
       <c r="AL224" s="1"/>
       <c r="AM224" s="1"/>
     </row>
-    <row r="225" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>437</v>
       </c>
@@ -27673,7 +27637,7 @@
       <c r="AL225" s="1"/>
       <c r="AM225" s="1"/>
     </row>
-    <row r="226" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>438</v>
       </c>
@@ -27780,7 +27744,7 @@
       <c r="AL226" s="1"/>
       <c r="AM226" s="1"/>
     </row>
-    <row r="227" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>440</v>
       </c>
@@ -27887,7 +27851,7 @@
       <c r="AL227" s="1"/>
       <c r="AM227" s="1"/>
     </row>
-    <row r="228" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>441</v>
       </c>
@@ -27996,7 +27960,7 @@
       <c r="AL228" s="1"/>
       <c r="AM228" s="1"/>
     </row>
-    <row r="229" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>443</v>
       </c>
@@ -28103,7 +28067,7 @@
       <c r="AL229" s="1"/>
       <c r="AM229" s="1"/>
     </row>
-    <row r="230" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>445</v>
       </c>
@@ -28212,7 +28176,7 @@
       <c r="AL230" s="1"/>
       <c r="AM230" s="1"/>
     </row>
-    <row r="231" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>447</v>
       </c>
@@ -28321,7 +28285,7 @@
       <c r="AL231" s="1"/>
       <c r="AM231" s="1"/>
     </row>
-    <row r="232" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>448</v>
       </c>
@@ -28430,7 +28394,7 @@
       <c r="AL232" s="1"/>
       <c r="AM232" s="1"/>
     </row>
-    <row r="233" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>450</v>
       </c>
@@ -28539,7 +28503,7 @@
       <c r="AL233" s="1"/>
       <c r="AM233" s="1"/>
     </row>
-    <row r="234" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>451</v>
       </c>
@@ -28650,7 +28614,7 @@
       <c r="AL234" s="1"/>
       <c r="AM234" s="1"/>
     </row>
-    <row r="235" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>453</v>
       </c>
@@ -28761,7 +28725,7 @@
       <c r="AL235" s="1"/>
       <c r="AM235" s="1"/>
     </row>
-    <row r="236" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>455</v>
       </c>
@@ -28870,7 +28834,7 @@
       <c r="AL236" s="1"/>
       <c r="AM236" s="1"/>
     </row>
-    <row r="237" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>457</v>
       </c>
@@ -28979,7 +28943,7 @@
       <c r="AL237" s="1"/>
       <c r="AM237" s="1"/>
     </row>
-    <row r="238" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>458</v>
       </c>
@@ -29090,7 +29054,7 @@
       <c r="AL238" s="1"/>
       <c r="AM238" s="1"/>
     </row>
-    <row r="239" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>460</v>
       </c>
@@ -29199,7 +29163,7 @@
       <c r="AL239" s="1"/>
       <c r="AM239" s="1"/>
     </row>
-    <row r="240" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>462</v>
       </c>
@@ -29306,7 +29270,7 @@
       <c r="AL240" s="1"/>
       <c r="AM240" s="1"/>
     </row>
-    <row r="241" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>464</v>
       </c>
@@ -29413,7 +29377,7 @@
       <c r="AL241" s="1"/>
       <c r="AM241" s="1"/>
     </row>
-    <row r="242" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>465</v>
       </c>
@@ -29520,7 +29484,7 @@
       <c r="AL242" s="1"/>
       <c r="AM242" s="1"/>
     </row>
-    <row r="243" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>466</v>
       </c>
@@ -29627,7 +29591,7 @@
       <c r="AL243" s="1"/>
       <c r="AM243" s="1"/>
     </row>
-    <row r="244" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>467</v>
       </c>
@@ -29734,7 +29698,7 @@
       <c r="AL244" s="1"/>
       <c r="AM244" s="1"/>
     </row>
-    <row r="245" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>468</v>
       </c>
@@ -29843,7 +29807,7 @@
       <c r="AL245" s="1"/>
       <c r="AM245" s="1"/>
     </row>
-    <row r="246" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>470</v>
       </c>
@@ -29952,7 +29916,7 @@
       <c r="AL246" s="1"/>
       <c r="AM246" s="1"/>
     </row>
-    <row r="247" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>471</v>
       </c>
@@ -30063,7 +30027,7 @@
       <c r="AL247" s="1"/>
       <c r="AM247" s="1"/>
     </row>
-    <row r="248" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>474</v>
       </c>
@@ -30174,7 +30138,7 @@
       <c r="AL248" s="1"/>
       <c r="AM248" s="1"/>
     </row>
-    <row r="249" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>475</v>
       </c>
@@ -30283,7 +30247,7 @@
       <c r="AL249" s="1"/>
       <c r="AM249" s="1"/>
     </row>
-    <row r="250" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>476</v>
       </c>
@@ -30392,7 +30356,7 @@
       <c r="AL250" s="1"/>
       <c r="AM250" s="1"/>
     </row>
-    <row r="251" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>477</v>
       </c>
@@ -30501,7 +30465,7 @@
       <c r="AL251" s="1"/>
       <c r="AM251" s="1"/>
     </row>
-    <row r="252" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>478</v>
       </c>
@@ -30610,7 +30574,7 @@
       <c r="AL252" s="1"/>
       <c r="AM252" s="1"/>
     </row>
-    <row r="253" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>479</v>
       </c>
@@ -30719,7 +30683,7 @@
       <c r="AL253" s="1"/>
       <c r="AM253" s="1"/>
     </row>
-    <row r="254" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>480</v>
       </c>
@@ -30828,7 +30792,7 @@
       <c r="AL254" s="1"/>
       <c r="AM254" s="1"/>
     </row>
-    <row r="255" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>481</v>
       </c>
@@ -30937,7 +30901,7 @@
       <c r="AL255" s="1"/>
       <c r="AM255" s="1"/>
     </row>
-    <row r="256" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>482</v>
       </c>
@@ -31048,7 +31012,7 @@
       <c r="AL256" s="1"/>
       <c r="AM256" s="1"/>
     </row>
-    <row r="257" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>483</v>
       </c>
@@ -31157,7 +31121,7 @@
       <c r="AL257" s="1"/>
       <c r="AM257" s="1"/>
     </row>
-    <row r="258" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>485</v>
       </c>
@@ -31266,7 +31230,7 @@
       <c r="AL258" s="1"/>
       <c r="AM258" s="1"/>
     </row>
-    <row r="259" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>486</v>
       </c>
@@ -31375,7 +31339,7 @@
       <c r="AL259" s="1"/>
       <c r="AM259" s="1"/>
     </row>
-    <row r="260" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>487</v>
       </c>
@@ -31484,7 +31448,7 @@
       <c r="AL260" s="1"/>
       <c r="AM260" s="1"/>
     </row>
-    <row r="261" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>488</v>
       </c>
@@ -31593,7 +31557,7 @@
       <c r="AL261" s="1"/>
       <c r="AM261" s="1"/>
     </row>
-    <row r="262" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>489</v>
       </c>
@@ -31702,7 +31666,7 @@
       <c r="AL262" s="1"/>
       <c r="AM262" s="1"/>
     </row>
-    <row r="263" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>490</v>
       </c>
@@ -31811,7 +31775,7 @@
       <c r="AL263" s="1"/>
       <c r="AM263" s="1"/>
     </row>
-    <row r="264" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>491</v>
       </c>
@@ -31922,7 +31886,7 @@
       <c r="AL264" s="1"/>
       <c r="AM264" s="1"/>
     </row>
-    <row r="265" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>494</v>
       </c>
@@ -32031,7 +31995,7 @@
       <c r="AL265" s="1"/>
       <c r="AM265" s="1"/>
     </row>
-    <row r="266" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>495</v>
       </c>
@@ -32142,7 +32106,7 @@
       <c r="AL266" s="1"/>
       <c r="AM266" s="1"/>
     </row>
-    <row r="267" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>496</v>
       </c>
@@ -32253,7 +32217,7 @@
       <c r="AL267" s="1"/>
       <c r="AM267" s="1"/>
     </row>
-    <row r="268" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>497</v>
       </c>
@@ -32364,7 +32328,7 @@
       <c r="AL268" s="1"/>
       <c r="AM268" s="1"/>
     </row>
-    <row r="269" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>498</v>
       </c>
@@ -32475,7 +32439,7 @@
       <c r="AL269" s="1"/>
       <c r="AM269" s="1"/>
     </row>
-    <row r="270" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>499</v>
       </c>
@@ -32574,7 +32538,7 @@
       <c r="AL270" s="1"/>
       <c r="AM270" s="1"/>
     </row>
-    <row r="271" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>502</v>
       </c>
@@ -32673,7 +32637,7 @@
       <c r="AL271" s="1"/>
       <c r="AM271" s="1"/>
     </row>
-    <row r="272" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>504</v>
       </c>
@@ -32772,7 +32736,7 @@
       <c r="AL272" s="1"/>
       <c r="AM272" s="1"/>
     </row>
-    <row r="273" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>505</v>
       </c>
@@ -32879,7 +32843,7 @@
       <c r="AL273" s="1"/>
       <c r="AM273" s="1"/>
     </row>
-    <row r="274" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>507</v>
       </c>
@@ -32988,7 +32952,7 @@
       <c r="AL274" s="1"/>
       <c r="AM274" s="1"/>
     </row>
-    <row r="275" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>509</v>
       </c>
@@ -33097,7 +33061,7 @@
       <c r="AL275" s="1"/>
       <c r="AM275" s="1"/>
     </row>
-    <row r="276" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>510</v>
       </c>
@@ -33206,7 +33170,7 @@
       <c r="AL276" s="1"/>
       <c r="AM276" s="1"/>
     </row>
-    <row r="277" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>512</v>
       </c>
@@ -33315,7 +33279,7 @@
       <c r="AL277" s="1"/>
       <c r="AM277" s="1"/>
     </row>
-    <row r="278" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>514</v>
       </c>
@@ -33426,7 +33390,7 @@
       <c r="AL278" s="1"/>
       <c r="AM278" s="1"/>
     </row>
-    <row r="279" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>516</v>
       </c>
@@ -33535,7 +33499,7 @@
       <c r="AL279" s="1"/>
       <c r="AM279" s="1"/>
     </row>
-    <row r="280" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>518</v>
       </c>
@@ -33644,7 +33608,7 @@
       <c r="AL280" s="1"/>
       <c r="AM280" s="1"/>
     </row>
-    <row r="281" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>519</v>
       </c>
@@ -33753,7 +33717,7 @@
       <c r="AL281" s="1"/>
       <c r="AM281" s="1"/>
     </row>
-    <row r="282" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>521</v>
       </c>
@@ -33860,7 +33824,7 @@
       <c r="AL282" s="1"/>
       <c r="AM282" s="1"/>
     </row>
-    <row r="283" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>523</v>
       </c>
@@ -33969,7 +33933,7 @@
       <c r="AL283" s="1"/>
       <c r="AM283" s="1"/>
     </row>
-    <row r="284" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>524</v>
       </c>
@@ -34078,7 +34042,7 @@
       <c r="AL284" s="1"/>
       <c r="AM284" s="1"/>
     </row>
-    <row r="285" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>525</v>
       </c>
@@ -34187,7 +34151,7 @@
       <c r="AL285" s="1"/>
       <c r="AM285" s="1"/>
     </row>
-    <row r="286" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>526</v>
       </c>
@@ -34296,7 +34260,7 @@
       <c r="AL286" s="1"/>
       <c r="AM286" s="1"/>
     </row>
-    <row r="287" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>528</v>
       </c>
@@ -34405,7 +34369,7 @@
       <c r="AL287" s="1"/>
       <c r="AM287" s="1"/>
     </row>
-    <row r="288" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>530</v>
       </c>
@@ -34514,7 +34478,7 @@
       <c r="AL288" s="1"/>
       <c r="AM288" s="1"/>
     </row>
-    <row r="289" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>532</v>
       </c>
@@ -34623,7 +34587,7 @@
       <c r="AL289" s="1"/>
       <c r="AM289" s="1"/>
     </row>
-    <row r="290" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>533</v>
       </c>
@@ -34732,7 +34696,7 @@
       <c r="AL290" s="1"/>
       <c r="AM290" s="1"/>
     </row>
-    <row r="291" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>534</v>
       </c>
@@ -34843,7 +34807,7 @@
       <c r="AL291" s="1"/>
       <c r="AM291" s="1"/>
     </row>
-    <row r="292" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>536</v>
       </c>
@@ -34956,7 +34920,7 @@
       <c r="AL292" s="1"/>
       <c r="AM292" s="1"/>
     </row>
-    <row r="293" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>539</v>
       </c>
@@ -35067,7 +35031,7 @@
       <c r="AL293" s="1"/>
       <c r="AM293" s="1"/>
     </row>
-    <row r="294" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>542</v>
       </c>
@@ -35176,7 +35140,7 @@
       <c r="AL294" s="1"/>
       <c r="AM294" s="1"/>
     </row>
-    <row r="295" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>543</v>
       </c>
@@ -35287,7 +35251,7 @@
       <c r="AL295" s="1"/>
       <c r="AM295" s="1"/>
     </row>
-    <row r="296" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>545</v>
       </c>
@@ -35398,7 +35362,7 @@
       <c r="AL296" s="1"/>
       <c r="AM296" s="1"/>
     </row>
-    <row r="297" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>547</v>
       </c>
@@ -35507,7 +35471,7 @@
       <c r="AL297" s="1"/>
       <c r="AM297" s="1"/>
     </row>
-    <row r="298" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>549</v>
       </c>
@@ -35618,7 +35582,7 @@
       <c r="AL298" s="1"/>
       <c r="AM298" s="1"/>
     </row>
-    <row r="299" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>551</v>
       </c>
@@ -35729,7 +35693,7 @@
       <c r="AL299" s="1"/>
       <c r="AM299" s="1"/>
     </row>
-    <row r="300" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>552</v>
       </c>
@@ -35840,7 +35804,7 @@
       <c r="AL300" s="1"/>
       <c r="AM300" s="1"/>
     </row>
-    <row r="301" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>553</v>
       </c>
@@ -35951,7 +35915,7 @@
       <c r="AL301" s="1"/>
       <c r="AM301" s="1"/>
     </row>
-    <row r="302" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>554</v>
       </c>
@@ -36058,7 +36022,7 @@
       <c r="AL302" s="1"/>
       <c r="AM302" s="1"/>
     </row>
-    <row r="303" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>556</v>
       </c>
@@ -36165,7 +36129,7 @@
       <c r="AL303" s="1"/>
       <c r="AM303" s="1"/>
     </row>
-    <row r="304" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>557</v>
       </c>
@@ -36272,7 +36236,7 @@
       <c r="AL304" s="1"/>
       <c r="AM304" s="1"/>
     </row>
-    <row r="305" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>558</v>
       </c>
@@ -36379,7 +36343,7 @@
       <c r="AL305" s="1"/>
       <c r="AM305" s="1"/>
     </row>
-    <row r="306" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>560</v>
       </c>
@@ -36486,7 +36450,7 @@
       <c r="AL306" s="1"/>
       <c r="AM306" s="1"/>
     </row>
-    <row r="307" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>562</v>
       </c>
@@ -36593,7 +36557,7 @@
       <c r="AL307" s="1"/>
       <c r="AM307" s="1"/>
     </row>
-    <row r="308" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>564</v>
       </c>
@@ -36700,7 +36664,7 @@
       <c r="AL308" s="1"/>
       <c r="AM308" s="1"/>
     </row>
-    <row r="309" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>566</v>
       </c>
@@ -36809,7 +36773,7 @@
       <c r="AL309" s="1"/>
       <c r="AM309" s="1"/>
     </row>
-    <row r="310" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>568</v>
       </c>
@@ -36908,7 +36872,7 @@
       <c r="AM310" s="1"/>
       <c r="AN310" s="1"/>
     </row>
-    <row r="311" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>571</v>
       </c>
@@ -37016,7 +36980,7 @@
       <c r="AL311" s="1"/>
       <c r="AM311" s="1"/>
     </row>
-    <row r="312" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>573</v>
       </c>
@@ -37125,7 +37089,7 @@
       <c r="AL312" s="1"/>
       <c r="AM312" s="1"/>
     </row>
-    <row r="313" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>575</v>
       </c>
@@ -37234,7 +37198,7 @@
       <c r="AL313" s="1"/>
       <c r="AM313" s="1"/>
     </row>
-    <row r="314" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>576</v>
       </c>
@@ -37343,7 +37307,7 @@
       <c r="AL314" s="1"/>
       <c r="AM314" s="1"/>
     </row>
-    <row r="315" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>577</v>
       </c>
@@ -37452,7 +37416,7 @@
       <c r="AL315" s="1"/>
       <c r="AM315" s="1"/>
     </row>
-    <row r="316" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>579</v>
       </c>
@@ -37561,7 +37525,7 @@
       <c r="AL316" s="1"/>
       <c r="AM316" s="1"/>
     </row>
-    <row r="317" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>580</v>
       </c>
@@ -37670,7 +37634,7 @@
       <c r="AL317" s="1"/>
       <c r="AM317" s="1"/>
     </row>
-    <row r="318" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>581</v>
       </c>
@@ -37779,7 +37743,7 @@
       <c r="AL318" s="1"/>
       <c r="AM318" s="1"/>
     </row>
-    <row r="319" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>583</v>
       </c>
@@ -37890,7 +37854,7 @@
       <c r="AL319" s="1"/>
       <c r="AM319" s="1"/>
     </row>
-    <row r="320" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>585</v>
       </c>
@@ -37997,7 +37961,7 @@
       <c r="AL320" s="1"/>
       <c r="AM320" s="1"/>
     </row>
-    <row r="321" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>587</v>
       </c>
@@ -38104,7 +38068,7 @@
       <c r="AL321" s="1"/>
       <c r="AM321" s="1"/>
     </row>
-    <row r="322" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>589</v>
       </c>
@@ -38213,7 +38177,7 @@
       <c r="AL322" s="1"/>
       <c r="AM322" s="1"/>
     </row>
-    <row r="323" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>591</v>
       </c>
@@ -38320,7 +38284,7 @@
       <c r="AL323" s="1"/>
       <c r="AM323" s="1"/>
     </row>
-    <row r="324" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>593</v>
       </c>
@@ -38427,7 +38391,7 @@
       <c r="AL324" s="1"/>
       <c r="AM324" s="1"/>
     </row>
-    <row r="325" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>595</v>
       </c>
@@ -38536,7 +38500,7 @@
       <c r="AL325" s="1"/>
       <c r="AM325" s="1"/>
     </row>
-    <row r="326" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>597</v>
       </c>
@@ -38633,7 +38597,7 @@
       <c r="AL326" s="1"/>
       <c r="AM326" s="1"/>
     </row>
-    <row r="327" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>600</v>
       </c>
@@ -38732,7 +38696,7 @@
       <c r="AL327" s="1"/>
       <c r="AM327" s="1"/>
     </row>
-    <row r="328" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>604</v>
       </c>
@@ -38839,7 +38803,7 @@
       <c r="AL328" s="1"/>
       <c r="AM328" s="1"/>
     </row>
-    <row r="329" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>605</v>
       </c>
@@ -38946,7 +38910,7 @@
       <c r="AL329" s="1"/>
       <c r="AM329" s="1"/>
     </row>
-    <row r="330" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>606</v>
       </c>
@@ -39055,7 +39019,7 @@
       <c r="AL330" s="1"/>
       <c r="AM330" s="1"/>
     </row>
-    <row r="331" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>607</v>
       </c>
@@ -39154,7 +39118,7 @@
       <c r="AL331" s="1"/>
       <c r="AM331" s="1"/>
     </row>
-    <row r="332" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>609</v>
       </c>
@@ -39263,7 +39227,7 @@
       <c r="AL332" s="1"/>
       <c r="AM332" s="1"/>
     </row>
-    <row r="333" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>611</v>
       </c>
@@ -39362,7 +39326,7 @@
       <c r="AL333" s="1"/>
       <c r="AM333" s="1"/>
     </row>
-    <row r="334" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>613</v>
       </c>
@@ -39461,7 +39425,7 @@
       <c r="AL334" s="1"/>
       <c r="AM334" s="1"/>
     </row>
-    <row r="335" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>614</v>
       </c>
@@ -39572,7 +39536,7 @@
       <c r="AL335" s="1"/>
       <c r="AM335" s="1"/>
     </row>
-    <row r="336" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>616</v>
       </c>
@@ -39681,7 +39645,7 @@
       <c r="AL336" s="1"/>
       <c r="AM336" s="1"/>
     </row>
-    <row r="337" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>617</v>
       </c>
@@ -39792,7 +39756,7 @@
       <c r="AL337" s="1"/>
       <c r="AM337" s="1"/>
     </row>
-    <row r="338" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>619</v>
       </c>
@@ -39903,7 +39867,7 @@
       <c r="AL338" s="1"/>
       <c r="AM338" s="1"/>
     </row>
-    <row r="339" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>620</v>
       </c>
@@ -40002,7 +39966,7 @@
       <c r="AL339" s="1"/>
       <c r="AM339" s="1"/>
     </row>
-    <row r="340" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>621</v>
       </c>
@@ -40101,7 +40065,7 @@
       <c r="AL340" s="1"/>
       <c r="AM340" s="1"/>
     </row>
-    <row r="341" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>622</v>
       </c>
@@ -40200,7 +40164,7 @@
       <c r="AL341" s="1"/>
       <c r="AM341" s="1"/>
     </row>
-    <row r="342" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>623</v>
       </c>
@@ -40299,7 +40263,7 @@
       <c r="AL342" s="1"/>
       <c r="AM342" s="1"/>
     </row>
-    <row r="343" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>625</v>
       </c>
@@ -40406,7 +40370,7 @@
       <c r="AL343" s="1"/>
       <c r="AM343" s="1"/>
     </row>
-    <row r="344" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>628</v>
       </c>
@@ -40513,7 +40477,7 @@
       <c r="AL344" s="1"/>
       <c r="AM344" s="1"/>
     </row>
-    <row r="345" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>629</v>
       </c>
@@ -40624,7 +40588,7 @@
       <c r="AL345" s="1"/>
       <c r="AM345" s="1"/>
     </row>
-    <row r="346" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>631</v>
       </c>
@@ -40735,7 +40699,7 @@
       <c r="AL346" s="1"/>
       <c r="AM346" s="1"/>
     </row>
-    <row r="347" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>633</v>
       </c>
@@ -40846,7 +40810,7 @@
       <c r="AL347" s="1"/>
       <c r="AM347" s="1"/>
     </row>
-    <row r="348" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>636</v>
       </c>
@@ -40955,7 +40919,7 @@
       <c r="AL348" s="1"/>
       <c r="AM348" s="1"/>
     </row>
-    <row r="349" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>638</v>
       </c>
@@ -41066,7 +41030,7 @@
       <c r="AL349" s="1"/>
       <c r="AM349" s="1"/>
     </row>
-    <row r="350" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>640</v>
       </c>
@@ -41177,7 +41141,7 @@
       <c r="AL350" s="1"/>
       <c r="AM350" s="1"/>
     </row>
-    <row r="351" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>641</v>
       </c>
@@ -41288,7 +41252,7 @@
       <c r="AL351" s="1"/>
       <c r="AM351" s="1"/>
     </row>
-    <row r="352" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>642</v>
       </c>
@@ -41399,7 +41363,7 @@
       <c r="AL352" s="1"/>
       <c r="AM352" s="1"/>
     </row>
-    <row r="353" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>643</v>
       </c>
@@ -41506,7 +41470,7 @@
       <c r="AL353" s="1"/>
       <c r="AM353" s="1"/>
     </row>
-    <row r="354" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>645</v>
       </c>
@@ -41617,7 +41581,7 @@
       <c r="AL354" s="1"/>
       <c r="AM354" s="1"/>
     </row>
-    <row r="355" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>648</v>
       </c>
@@ -41728,7 +41692,7 @@
       <c r="AL355" s="1"/>
       <c r="AM355" s="1"/>
     </row>
-    <row r="356" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>649</v>
       </c>
@@ -41837,7 +41801,7 @@
       <c r="AL356" s="1"/>
       <c r="AM356" s="1"/>
     </row>
-    <row r="357" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>650</v>
       </c>
@@ -41948,7 +41912,7 @@
       <c r="AL357" s="1"/>
       <c r="AM357" s="1"/>
     </row>
-    <row r="358" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>651</v>
       </c>
@@ -42057,7 +42021,7 @@
       <c r="AL358" s="1"/>
       <c r="AM358" s="1"/>
     </row>
-    <row r="359" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>653</v>
       </c>
@@ -42166,7 +42130,7 @@
       <c r="AL359" s="1"/>
       <c r="AM359" s="1"/>
     </row>
-    <row r="360" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>654</v>
       </c>
@@ -42275,7 +42239,7 @@
       <c r="AL360" s="1"/>
       <c r="AM360" s="1"/>
     </row>
-    <row r="361" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>655</v>
       </c>
@@ -42384,7 +42348,7 @@
       <c r="AL361" s="1"/>
       <c r="AM361" s="1"/>
     </row>
-    <row r="362" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -42425,7 +42389,7 @@
       <c r="AL362" s="1"/>
       <c r="AM362" s="1"/>
     </row>
-    <row r="363" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -42466,7 +42430,7 @@
       <c r="AL363" s="1"/>
       <c r="AM363" s="1"/>
     </row>
-    <row r="364" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -42507,7 +42471,7 @@
       <c r="AL364" s="1"/>
       <c r="AM364" s="1"/>
     </row>
-    <row r="365" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -42548,7 +42512,7 @@
       <c r="AL365" s="1"/>
       <c r="AM365" s="1"/>
     </row>
-    <row r="366" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -42589,7 +42553,7 @@
       <c r="AL366" s="1"/>
       <c r="AM366" s="1"/>
     </row>
-    <row r="367" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -42630,7 +42594,7 @@
       <c r="AL367" s="1"/>
       <c r="AM367" s="1"/>
     </row>
-    <row r="368" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -42672,6 +42636,7 @@
       <c r="AM368" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:AI1" xr:uid="{BF10B127-6165-4A57-AAED-596F28B83BE3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyecto Interno/composicion-nut/1823_mapeo_sipsa_tcac v1.0_2025.xlsx
+++ b/Proyecto Interno/composicion-nut/1823_mapeo_sipsa_tcac v1.0_2025.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/composicion-nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B138571D-3664-4E25-BFF5-D05DDD42E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA6248E7-601A-41B4-92F1-9CABCE5C596F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B138571D-3664-4E25-BFF5-D05DDD42E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDC4132-708A-437F-A312-12C6EE32679A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6204" yWindow="3804" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imputada" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Imputada!$B$1:$AI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Imputada!$B$1:$AI$361</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3262,10 +3273,10 @@
   <dimension ref="A1:AN368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomRight" activeCell="E362" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3273,7 +3284,7 @@
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" customWidth="1"/>
     <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
@@ -42636,7 +42647,7 @@
       <c r="AM368" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AI1" xr:uid="{BF10B127-6165-4A57-AAED-596F28B83BE3}"/>
+  <autoFilter ref="B1:AI361" xr:uid="{BF10B127-6165-4A57-AAED-596F28B83BE3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Proyecto Interno/composicion-nut/1823_mapeo_sipsa_tcac v1.0_2025.xlsx
+++ b/Proyecto Interno/composicion-nut/1823_mapeo_sipsa_tcac v1.0_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/composicion-nut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B138571D-3664-4E25-BFF5-D05DDD42E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDC4132-708A-437F-A312-12C6EE32679A}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B138571D-3664-4E25-BFF5-D05DDD42E79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E47404-59FE-4A20-9BDF-DB80F2363D76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2977,10 +2977,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3273,10 +3269,10 @@
   <dimension ref="A1:AN368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E362" sqref="E362"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3285,7 +3281,7 @@
     <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.33203125" customWidth="1"/>
